--- a/medicine/Sexualité et sexologie/Mary_Anna_Barbey/Mary_Anna_Barbey.xlsx
+++ b/medicine/Sexualité et sexologie/Mary_Anna_Barbey/Mary_Anna_Barbey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary Anna Barbey, née le 27 juillet 1936 à Durham en Caroline du Nord, est une enseignante et écrivain vaudoise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Très tôt, sa famille s'établit à New Haven dans le Connecticut où son père était doyen de la faculté de théologie de l'université de Yale.
 Mary Anna Barbey fait des études à la faculté de philosophie de Vassar College.
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Mary Anna Barbey », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Histoire de la littérature en Suisse romande, sous la dir. de R. Francillon, vol. 4, p. 226, 434
